--- a/atelierI_statique/Auto-Eval-ASI1-ICS-r1.xlsx
+++ b/atelierI_statique/Auto-Eval-ASI1-ICS-r1.xlsx
@@ -121,13 +121,13 @@
     <t xml:space="preserve">DIB Nassim</t>
   </si>
   <si>
-    <t xml:space="preserve">Etudiant B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etudiant C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etudiant D</t>
+    <t xml:space="preserve">SEYMARC Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE IULIIS Lorenzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBOUY Léo</t>
   </si>
   <si>
     <t xml:space="preserve">Somme implication</t>
@@ -330,7 +330,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -364,6 +364,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -462,7 +470,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,6 +564,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="20" t="s">
         <v>14</v>
@@ -1189,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" s="20" t="s">
         <v>14</v>
@@ -1213,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="19" t="s">
@@ -1244,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>14</v>
@@ -1299,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>14</v>
@@ -1354,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>14</v>
@@ -1409,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>14</v>
@@ -1464,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>14</v>
@@ -1519,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" s="20" t="s">
         <v>14</v>
@@ -1574,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>14</v>
@@ -1629,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16" s="20" t="s">
         <v>14</v>
@@ -1684,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17" s="20" t="s">
         <v>14</v>
@@ -1739,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -1794,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>14</v>
@@ -1849,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>14</v>
@@ -1904,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>14</v>
@@ -1959,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M22" s="20" t="s">
         <v>14</v>
@@ -2014,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>14</v>
@@ -2069,7 +2081,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24" s="20" t="s">
         <v>14</v>
@@ -2124,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M25" s="20" t="s">
         <v>14</v>
@@ -2179,7 +2191,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M26" s="20" t="s">
         <v>14</v>
@@ -2234,7 +2246,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M27" s="20" t="s">
         <v>14</v>
@@ -2289,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>14</v>
@@ -2344,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M29" s="20" t="s">
         <v>14</v>
@@ -2399,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>14</v>
@@ -2454,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M31" s="20" t="s">
         <v>14</v>
@@ -2509,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M32" s="20" t="s">
         <v>14</v>
@@ -2564,12 +2576,12 @@
         <v>14</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="24" t="s">
         <v>14</v>
       </c>
       <c r="O33" s="21" t="s">
@@ -2619,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M34" s="20" t="s">
         <v>14</v>
@@ -2674,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M35" s="20" t="s">
         <v>14</v>
@@ -2752,7 +2764,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M37" s="20" t="s">
         <v>14</v>
@@ -2807,7 +2819,7 @@
         <v>14</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M38" s="20" t="s">
         <v>14</v>
@@ -2862,7 +2874,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M39" s="20" t="s">
         <v>14</v>
@@ -2917,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M40" s="20" t="s">
         <v>14</v>
@@ -2972,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M41" s="20" t="s">
         <v>14</v>
@@ -3027,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M42" s="20" t="s">
         <v>14</v>
@@ -3082,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M43" s="20" t="s">
         <v>14</v>
@@ -3137,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M44" s="20" t="s">
         <v>14</v>
@@ -3192,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M45" s="20" t="s">
         <v>14</v>
@@ -3247,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M46" s="20" t="s">
         <v>14</v>
@@ -3302,7 +3314,7 @@
         <v>14</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M47" s="20" t="s">
         <v>14</v>
@@ -3357,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M48" s="20" t="s">
         <v>14</v>
@@ -3412,7 +3424,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M49" s="20" t="s">
         <v>14</v>
@@ -3467,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M50" s="20" t="s">
         <v>14</v>
@@ -3522,7 +3534,7 @@
         <v>14</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M51" s="20" t="s">
         <v>14</v>
@@ -3577,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M52" s="20" t="s">
         <v>14</v>
@@ -3632,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M53" s="20" t="s">
         <v>14</v>
@@ -3687,7 +3699,7 @@
         <v>14</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M54" s="20" t="s">
         <v>14</v>
@@ -3742,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M55" s="20" t="s">
         <v>14</v>
@@ -3797,7 +3809,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M56" s="20" t="s">
         <v>14</v>
@@ -3852,7 +3864,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M57" s="20" t="s">
         <v>14</v>
@@ -3907,7 +3919,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>14</v>
@@ -4195,32 +4207,32 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
     </row>

--- a/atelierI_statique/Auto-Eval-ASI1-ICS-r1.xlsx
+++ b/atelierI_statique/Auto-Eval-ASI1-ICS-r1.xlsx
@@ -163,6 +163,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avantages/Inconvénients Web Statique couplé aux Web Services</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">Avantages/Inconvénients Web Dynamique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -882,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>14</v>
@@ -1174,7 +1174,7 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>13</v>
@@ -1188,8 +1188,8 @@
       <c r="G8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>14</v>
+      <c r="H8" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>14</v>
@@ -1229,10 +1229,10 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>14</v>
@@ -1243,8 +1243,8 @@
       <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>14</v>
+      <c r="H9" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>14</v>
@@ -1284,10 +1284,10 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>14</v>
@@ -1298,14 +1298,14 @@
       <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>19</v>
+      <c r="H10" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>20</v>
@@ -1342,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>14</v>
@@ -1353,8 +1353,8 @@
       <c r="G11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>14</v>
+      <c r="H11" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>14</v>
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>14</v>
@@ -1408,8 +1408,8 @@
       <c r="G12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>14</v>
+      <c r="H12" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>14</v>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>14</v>
@@ -1463,8 +1463,8 @@
       <c r="G13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>14</v>
+      <c r="H13" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>14</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>14</v>
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>14</v>
@@ -1562,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>14</v>
@@ -1573,8 +1573,8 @@
       <c r="G15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>14</v>
+      <c r="H15" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>14</v>
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>14</v>
@@ -1617,7 +1617,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>14</v>
@@ -1629,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>14</v>
@@ -1683,8 +1683,8 @@
       <c r="G17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>14</v>
+      <c r="H17" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>14</v>
@@ -1738,8 +1738,8 @@
       <c r="G18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>14</v>
+      <c r="H18" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>14</v>
@@ -1751,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="20" t="s">
         <v>14</v>
@@ -1793,8 +1793,8 @@
       <c r="G19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>14</v>
+      <c r="H19" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>14</v>
@@ -1837,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>14</v>
@@ -1848,8 +1848,8 @@
       <c r="G20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>14</v>
+      <c r="H20" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>14</v>
@@ -1903,8 +1903,8 @@
       <c r="G21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>14</v>
+      <c r="H21" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>14</v>
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>14</v>
@@ -1947,7 +1947,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>14</v>
@@ -1959,7 +1959,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>14</v>
@@ -1971,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22" s="20" t="s">
         <v>14</v>
@@ -2013,8 +2013,8 @@
       <c r="G23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>14</v>
+      <c r="H23" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>14</v>
@@ -2026,7 +2026,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>14</v>
@@ -2068,8 +2068,8 @@
       <c r="G24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>14</v>
+      <c r="H24" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>14</v>
@@ -2112,7 +2112,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>14</v>
@@ -2123,8 +2123,8 @@
       <c r="G25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>14</v>
+      <c r="H25" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>14</v>
@@ -2178,8 +2178,8 @@
       <c r="G26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>14</v>
+      <c r="H26" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>14</v>
@@ -2233,8 +2233,8 @@
       <c r="G27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>14</v>
+      <c r="H27" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>14</v>
@@ -2277,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>14</v>
@@ -2288,8 +2288,8 @@
       <c r="G28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>14</v>
+      <c r="H28" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>14</v>
@@ -2332,7 +2332,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>14</v>
@@ -2343,8 +2343,8 @@
       <c r="G29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>14</v>
+      <c r="H29" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I29" s="20" t="s">
         <v>14</v>
@@ -2398,8 +2398,8 @@
       <c r="G30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>14</v>
+      <c r="H30" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>14</v>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>14</v>
@@ -2453,8 +2453,8 @@
       <c r="G31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>14</v>
+      <c r="H31" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>14</v>
@@ -2466,7 +2466,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31" s="20" t="s">
         <v>14</v>
@@ -2508,8 +2508,8 @@
       <c r="G32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>14</v>
+      <c r="H32" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>14</v>
@@ -2552,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>14</v>
@@ -2563,8 +2563,8 @@
       <c r="G33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>14</v>
+      <c r="H33" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>14</v>
@@ -2607,7 +2607,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>14</v>
@@ -2618,8 +2618,8 @@
       <c r="G34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>14</v>
+      <c r="H34" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>14</v>
@@ -2662,7 +2662,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>14</v>
@@ -2673,8 +2673,8 @@
       <c r="G35" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>14</v>
+      <c r="H35" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>14</v>
@@ -2740,7 +2740,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>14</v>
@@ -2795,7 +2795,7 @@
         <v>46</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>14</v>
@@ -2874,7 +2874,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39" s="20" t="s">
         <v>14</v>
@@ -2960,7 +2960,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>14</v>
@@ -2984,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41" s="20" t="s">
         <v>14</v>
@@ -3039,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42" s="20" t="s">
         <v>14</v>
@@ -3094,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M43" s="20" t="s">
         <v>14</v>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M44" s="20" t="s">
         <v>14</v>
@@ -3180,7 +3180,7 @@
         <v>53</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>14</v>
@@ -3259,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M46" s="20" t="s">
         <v>14</v>
@@ -3290,7 +3290,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>14</v>
@@ -3345,7 +3345,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>14</v>
@@ -3369,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M48" s="20" t="s">
         <v>14</v>
@@ -3400,7 +3400,7 @@
         <v>57</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>14</v>
@@ -3479,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M50" s="20" t="s">
         <v>14</v>
@@ -3510,7 +3510,7 @@
         <v>59</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>14</v>
@@ -3589,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52" s="20" t="s">
         <v>14</v>
@@ -3644,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M53" s="20" t="s">
         <v>14</v>
@@ -3675,7 +3675,7 @@
         <v>62</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>14</v>
@@ -3730,7 +3730,7 @@
         <v>63</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>14</v>
@@ -3785,7 +3785,7 @@
         <v>64</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>14</v>
@@ -3895,7 +3895,7 @@
         <v>66</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>14</v>
@@ -3955,7 +3955,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B36:C36"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F35 H7:J35 L7:N35 P7:R35 D37:S58">
+  <conditionalFormatting sqref="D7:F35 I7:J35 L7:N35 P7:R35 D37:S58 H7:H11 H13:H26 H29:H35">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"A"</formula>
     </cfRule>
@@ -4017,7 +4017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K35">
+  <conditionalFormatting sqref="K7:K35 H12 H27:H28">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"A"</formula>
     </cfRule>
@@ -4228,12 +4228,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
